--- a/計測結果.xlsx
+++ b/計測結果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfbab2a2b25d59a3/デスクトップ/subtheme/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\subtheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{9B2C42B3-9F09-4A7E-B964-D055159750D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9C921C15-118B-4ABB-92AA-B884F71A1E57}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A70DF9-57DE-4B61-B913-E4F3CA6DE743}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="2085" windowWidth="28800" windowHeight="11385" xr2:uid="{2D3DA500-B2F2-4026-A904-B73175255E8D}"/>
+    <workbookView xWindow="19545" yWindow="2295" windowWidth="18225" windowHeight="11385" xr2:uid="{2D3DA500-B2F2-4026-A904-B73175255E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,26 +34,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>逐次処理</t>
+    <t>1.58s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逐次処理(soinsu.c)</t>
     <rPh sb="0" eb="4">
       <t>チクジショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>並列処理</t>
+    <t>並列処理(soinsu.cu)</t>
     <rPh sb="0" eb="4">
       <t>ヘイレツショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>539.27us</t>
+    <t>MPQS(soinsu2.cu)</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.58s</t>
+    <t>target</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -418,28 +423,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AC8C3D-BDEC-4312-969E-20D577346F63}">
-  <dimension ref="B2:D3"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
+      <c r="C3">
+        <v>0.06</v>
+      </c>
+      <c r="D3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3000</v>
+      </c>
+      <c r="C5">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>30000</v>
+      </c>
+      <c r="C6">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>300000</v>
       </c>
     </row>
   </sheetData>

--- a/計測結果.xlsx
+++ b/計測結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\subtheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A70DF9-57DE-4B61-B913-E4F3CA6DE743}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33CDD47-DC67-44DF-B26D-BB43EC4CBDB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19545" yWindow="2295" windowWidth="18225" windowHeight="11385" xr2:uid="{2D3DA500-B2F2-4026-A904-B73175255E8D}"/>
+    <workbookView xWindow="18285" yWindow="2640" windowWidth="18225" windowHeight="11385" xr2:uid="{2D3DA500-B2F2-4026-A904-B73175255E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,31 +34,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>1.58s</t>
+    <t>target</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>逐次処理(soinsu.c)</t>
-    <rPh sb="0" eb="4">
-      <t>チクジショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>並列処理(soinsu.cu)</t>
+    <t>並列処理(soinsu.cu)[ms]</t>
     <rPh sb="0" eb="4">
       <t>ヘイレツショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MPQS(soinsu2.cu)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>target</t>
+    <t>MPQS(soinsu3.cu)[ms]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -66,6 +55,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,8 +97,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,37 +421,35 @@
   <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.06</v>
       </c>
       <c r="D3">
-        <v>4.5999999999999999E-2</v>
+        <v>8.2199999999999999E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -466,6 +459,9 @@
       <c r="C4">
         <v>5.8999999999999997E-2</v>
       </c>
+      <c r="D4">
+        <v>3.0700000000000002E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
@@ -474,6 +470,9 @@
       <c r="C5">
         <v>5.5E-2</v>
       </c>
+      <c r="D5">
+        <v>1.605</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -482,10 +481,19 @@
       <c r="C6">
         <v>7.6999999999999999E-2</v>
       </c>
+      <c r="D6">
+        <v>20.12</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>300000</v>
+      </c>
+      <c r="C7">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D7">
+        <v>1517</v>
       </c>
     </row>
   </sheetData>

--- a/計測結果.xlsx
+++ b/計測結果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\subtheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33CDD47-DC67-44DF-B26D-BB43EC4CBDB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5669BB3-3969-4FBF-8D91-1788A9A1087D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18285" yWindow="2640" windowWidth="18225" windowHeight="11385" xr2:uid="{2D3DA500-B2F2-4026-A904-B73175255E8D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{2D3DA500-B2F2-4026-A904-B73175255E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>target</t>
     <phoneticPr fontId="1"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>MPQS(soinsu3.cu)[ms]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cpu</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -421,19 +425,22 @@
   <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -441,7 +448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>30</v>
       </c>
@@ -452,7 +459,7 @@
         <v>8.2199999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>300</v>
       </c>
@@ -463,7 +470,7 @@
         <v>3.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>3000</v>
       </c>
@@ -474,7 +481,7 @@
         <v>1.605</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>30000</v>
       </c>
@@ -485,9 +492,12 @@
         <v>20.12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>300000</v>
+      </c>
+      <c r="B7">
+        <v>194510</v>
       </c>
       <c r="C7">
         <v>0.94499999999999995</v>

--- a/計測結果.xlsx
+++ b/計測結果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\subtheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33CDD47-DC67-44DF-B26D-BB43EC4CBDB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D58521-FEBF-474E-B7FA-AF51DE33863E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18285" yWindow="2640" windowWidth="18225" windowHeight="11385" xr2:uid="{2D3DA500-B2F2-4026-A904-B73175255E8D}"/>
+    <workbookView xWindow="11130" yWindow="735" windowWidth="16650" windowHeight="11385" xr2:uid="{2D3DA500-B2F2-4026-A904-B73175255E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>target</t>
     <phoneticPr fontId="1"/>
@@ -48,6 +48,14 @@
   </si>
   <si>
     <t>MPQS(soinsu3.cu)[ms]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soinsu4.cu</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -418,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AC8C3D-BDEC-4312-969E-20D577346F63}">
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -430,70 +438,106 @@
     <col min="4" max="4" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>30</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3" s="1">
-        <v>0.06</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D3">
-        <v>8.2199999999999999E-3</v>
+        <v>4.07E-2</v>
+      </c>
+      <c r="E3">
+        <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>300</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>5.8999999999999997E-2</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D4">
-        <v>3.0700000000000002E-2</v>
+        <v>4.19E-2</v>
+      </c>
+      <c r="E4">
+        <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3000</v>
       </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
       <c r="C5">
-        <v>5.5E-2</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="D5">
-        <v>1.605</v>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E5">
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>30000</v>
       </c>
+      <c r="B6">
+        <v>1949.999</v>
+      </c>
       <c r="C6">
-        <v>7.6999999999999999E-2</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D6">
-        <v>20.12</v>
+        <v>13.847</v>
+      </c>
+      <c r="E6">
+        <v>2.9740000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>300000</v>
       </c>
+      <c r="B7">
+        <v>194159.99900000001</v>
+      </c>
       <c r="C7">
-        <v>0.94499999999999995</v>
+        <v>1.4990000000000001</v>
       </c>
       <c r="D7">
-        <v>1517</v>
+        <v>1262.3589999999999</v>
+      </c>
+      <c r="E7">
+        <v>286.26299999999998</v>
       </c>
     </row>
   </sheetData>

--- a/計測結果.xlsx
+++ b/計測結果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\subtheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D58521-FEBF-474E-B7FA-AF51DE33863E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E82858A-83E7-49DE-A371-BC6C0E27F946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11130" yWindow="735" windowWidth="16650" windowHeight="11385" xr2:uid="{2D3DA500-B2F2-4026-A904-B73175255E8D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{2D3DA500-B2F2-4026-A904-B73175255E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>target</t>
     <phoneticPr fontId="1"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>soinsu4.cu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soinsu5.cu</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -426,19 +430,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AC8C3D-BDEC-4312-969E-20D577346F63}">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -454,8 +458,11 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>30</v>
       </c>
@@ -472,7 +479,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>300</v>
       </c>
@@ -489,7 +496,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>3000</v>
       </c>
@@ -506,7 +513,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>30000</v>
       </c>
@@ -523,7 +530,7 @@
         <v>2.9740000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>300000</v>
       </c>

--- a/計測結果.xlsx
+++ b/計測結果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\subtheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E82858A-83E7-49DE-A371-BC6C0E27F946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE835065-E2F6-4365-8972-CC03A79CAB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{2D3DA500-B2F2-4026-A904-B73175255E8D}"/>
+    <workbookView xWindow="17100" yWindow="2430" windowWidth="16650" windowHeight="11385" xr2:uid="{2D3DA500-B2F2-4026-A904-B73175255E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,19 +430,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AC8C3D-BDEC-4312-969E-20D577346F63}">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -462,7 +463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>30</v>
       </c>
@@ -470,16 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0.14599999999999999</v>
+        <v>210</v>
       </c>
       <c r="D3">
-        <v>4.07E-2</v>
+        <v>150</v>
       </c>
       <c r="E3">
-        <v>3.9300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.7">
+        <v>140</v>
+      </c>
+      <c r="F3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>300</v>
       </c>
@@ -487,16 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.14099999999999999</v>
+        <v>140</v>
       </c>
       <c r="D4">
-        <v>4.19E-2</v>
+        <v>140</v>
       </c>
       <c r="E4">
-        <v>3.9300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.7">
+        <v>140</v>
+      </c>
+      <c r="F4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3000</v>
       </c>
@@ -504,16 +511,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>0.13700000000000001</v>
+        <v>140</v>
       </c>
       <c r="D5">
-        <v>0.17599999999999999</v>
+        <v>140</v>
       </c>
       <c r="E5">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
+        <v>130</v>
+      </c>
+      <c r="F5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>30000</v>
       </c>
@@ -521,16 +531,19 @@
         <v>1949.999</v>
       </c>
       <c r="C6">
-        <v>0.17299999999999999</v>
+        <v>140</v>
       </c>
       <c r="D6">
-        <v>13.847</v>
+        <v>150</v>
       </c>
       <c r="E6">
-        <v>2.9740000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
+        <v>140</v>
+      </c>
+      <c r="F6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>300000</v>
       </c>
@@ -538,13 +551,37 @@
         <v>194159.99900000001</v>
       </c>
       <c r="C7">
-        <v>1.4990000000000001</v>
+        <v>150</v>
       </c>
       <c r="D7">
-        <v>1262.3589999999999</v>
+        <v>1400</v>
       </c>
       <c r="E7">
-        <v>286.26299999999998</v>
+        <v>410</v>
+      </c>
+      <c r="F7">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <v>190</v>
+      </c>
+      <c r="D8">
+        <v>140</v>
+      </c>
+      <c r="E8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C10">
+        <v>36300</v>
       </c>
     </row>
   </sheetData>

--- a/計測結果.xlsx
+++ b/計測結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\subtheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE835065-E2F6-4365-8972-CC03A79CAB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98AA9C9-1A23-40A2-BB51-79FC4F63BA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="2430" windowWidth="16650" windowHeight="11385" xr2:uid="{2D3DA500-B2F2-4026-A904-B73175255E8D}"/>
+    <workbookView xWindow="12525" yWindow="2775" windowWidth="16650" windowHeight="11385" xr2:uid="{2D3DA500-B2F2-4026-A904-B73175255E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -567,10 +567,7 @@
       <c r="C8">
         <v>190</v>
       </c>
-      <c r="D8">
-        <v>140</v>
-      </c>
-      <c r="E8">
+      <c r="F8">
         <v>140</v>
       </c>
     </row>
@@ -578,10 +575,16 @@
       <c r="C9">
         <v>1310</v>
       </c>
+      <c r="F9">
+        <v>140</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C10">
         <v>36300</v>
+      </c>
+      <c r="F10">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/計測結果.xlsx
+++ b/計測結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\subtheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98AA9C9-1A23-40A2-BB51-79FC4F63BA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19723C54-3F7B-4C4C-B95F-4AFE190EC574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12525" yWindow="2775" windowWidth="16650" windowHeight="11385" xr2:uid="{2D3DA500-B2F2-4026-A904-B73175255E8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>target</t>
     <phoneticPr fontId="1"/>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>soinsu5.cu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -433,11 +437,12 @@
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
@@ -564,24 +569,60 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>3000000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
       <c r="C8">
         <v>190</v>
       </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
       <c r="F8">
         <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>30000000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
       <c r="C9">
         <v>1310</v>
       </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
       <c r="F9">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>300000000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
       <c r="C10">
         <v>36300</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
       </c>
       <c r="F10">
         <v>140</v>

--- a/計測結果.xlsx
+++ b/計測結果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\subtheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19723C54-3F7B-4C4C-B95F-4AFE190EC574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8DD934-8683-469F-B92C-64143DBFB70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12525" yWindow="2775" windowWidth="16650" windowHeight="11385" xr2:uid="{2D3DA500-B2F2-4026-A904-B73175255E8D}"/>
+    <workbookView xWindow="705" yWindow="270" windowWidth="18480" windowHeight="13425" xr2:uid="{2D3DA500-B2F2-4026-A904-B73175255E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,7 +434,7 @@
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -473,19 +470,19 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.441</v>
       </c>
       <c r="C3" s="1">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="D3">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E3">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="F3">
-        <v>230</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -493,19 +490,19 @@
         <v>300</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="C4">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="D4">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="E4">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="F4">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -516,16 +513,16 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="D5">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="E5">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="F5">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -533,19 +530,19 @@
         <v>30000</v>
       </c>
       <c r="B6">
-        <v>1949.999</v>
+        <v>1990</v>
       </c>
       <c r="C6">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="D6">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="E6">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="F6">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -553,19 +550,19 @@
         <v>300000</v>
       </c>
       <c r="B7">
-        <v>194159.99900000001</v>
+        <v>205000</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D7">
-        <v>1400</v>
+        <v>1430</v>
       </c>
       <c r="E7">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="F7">
-        <v>2750</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -576,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -585,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -596,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>1310</v>
+        <v>1330</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -605,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -625,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
